--- a/Completed Projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/BOQ/Running Bill No 2 - Amreli steel (IPC 1 + IPC 2).xlsx
+++ b/Completed Projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/BOQ/Running Bill No 2 - Amreli steel (IPC 1 + IPC 2).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03484E3E-4726-4E1C-A2E3-4670ACE308A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61FC967-C9FE-48D3-B7F7-6F36F4E9FC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -821,9 +821,6 @@
     <t>Supply,  installation,  testing  and  commissioning  of  of  chilled  water ducted  fan  coil  unit  &amp;  cooling  water  -  water  cooled  package  unit including  supply  and  installation  of  all  fixing  accessories,  lindaptor support,     hanger    steel     base,     vibration     isolators,     including interconnecting  power  &amp;  control  wiring  (terminal  connection)  with inlet &amp; outlet pipe connections, drain connection, flexible rubber duct connection / connector etc. complete in all respects ready to operate as  per  schedule,  specification,  drawings  and  as  per  instruction  of consultant.</t>
   </si>
   <si>
-    <t>ADD 4.5%</t>
-  </si>
-  <si>
     <t>RECEIVED</t>
   </si>
   <si>
@@ -849,6 +846,9 @@
   </si>
   <si>
     <t>NET RECEIVABLES</t>
+  </si>
+  <si>
+    <t>ADD 5.5%</t>
   </si>
 </sst>
 </file>
@@ -2097,35 +2097,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2464,7 +2464,7 @@
   <dimension ref="A2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="181" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="181"/>
       <c r="C6" s="181"/>
@@ -2616,7 +2616,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="120" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" s="121"/>
       <c r="D14" s="57" t="s">
@@ -2665,21 +2665,21 @@
     </row>
     <row r="20" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="170" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C20" s="171"/>
       <c r="D20" s="172" t="s">
         <v>195</v>
       </c>
       <c r="E20" s="173">
-        <f>E16*4.5%</f>
-        <v>439291.29614399996</v>
+        <f>E16*5.5%</f>
+        <v>536911.58417599997</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="170" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C22" s="171"/>
       <c r="D22" s="172" t="s">
@@ -2687,26 +2687,26 @@
       </c>
       <c r="E22" s="173">
         <f>E20+E16</f>
-        <v>10201320.099343998</v>
+        <v>10298940.387375999</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="170" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24" s="171"/>
       <c r="D24" s="172" t="s">
         <v>195</v>
       </c>
       <c r="E24" s="173">
-        <v>5502581</v>
+        <v>6590400</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="170" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C26" s="171"/>
       <c r="D26" s="172" t="s">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="E26" s="173">
         <f>E22-E24</f>
-        <v>4698739.0993439984</v>
+        <v>3708540.3873759992</v>
       </c>
     </row>
   </sheetData>
@@ -2857,7 +2857,7 @@
       <c r="E5" s="187"/>
       <c r="F5" s="187"/>
       <c r="G5" s="187" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H5" s="187"/>
       <c r="I5" s="187"/>
@@ -2888,25 +2888,25 @@
         <v>207</v>
       </c>
       <c r="G6" s="186" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H6" s="186" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" s="186" t="s">
         <v>213</v>
-      </c>
-      <c r="I6" s="186" t="s">
-        <v>214</v>
       </c>
       <c r="J6" s="186" t="s">
         <v>208</v>
       </c>
       <c r="K6" s="186" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L6" s="186" t="s">
+        <v>212</v>
+      </c>
+      <c r="M6" s="186" t="s">
         <v>213</v>
-      </c>
-      <c r="M6" s="186" t="s">
-        <v>214</v>
       </c>
       <c r="N6" s="186" t="s">
         <v>209</v>
@@ -7155,6 +7155,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="A1:O1"/>
@@ -7171,10 +7175,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7275,10 +7275,10 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="197" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="198"/>
+      <c r="B4" s="197"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -7296,16 +7296,16 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="191" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="194" t="s">
+      <c r="C5" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="194" t="s">
+      <c r="D5" s="191" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="76" t="s">
@@ -7315,38 +7315,38 @@
         <v>125</v>
       </c>
       <c r="G5" s="186" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H5" s="186" t="s">
+        <v>212</v>
+      </c>
+      <c r="I5" s="186" t="s">
         <v>213</v>
-      </c>
-      <c r="I5" s="186" t="s">
-        <v>214</v>
       </c>
       <c r="J5" s="186" t="s">
         <v>208</v>
       </c>
       <c r="K5" s="186" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L5" s="186" t="s">
+        <v>212</v>
+      </c>
+      <c r="M5" s="186" t="s">
         <v>213</v>
-      </c>
-      <c r="M5" s="186" t="s">
-        <v>214</v>
       </c>
       <c r="N5" s="186" t="s">
         <v>209</v>
       </c>
-      <c r="O5" s="194" t="s">
+      <c r="O5" s="191" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="195"/>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
+      <c r="A6" s="192"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
       <c r="E6" s="20" t="s">
         <v>127</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="L6" s="186"/>
       <c r="M6" s="186"/>
       <c r="N6" s="186"/>
-      <c r="O6" s="195"/>
+      <c r="O6" s="192"/>
     </row>
     <row r="7" spans="1:15" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
@@ -7726,48 +7726,48 @@
       <c r="B16" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="199" t="s">
+      <c r="C16" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="199">
         <v>46</v>
       </c>
-      <c r="E16" s="191">
+      <c r="E16" s="200">
         <v>3700</v>
       </c>
-      <c r="F16" s="191">
+      <c r="F16" s="200">
         <v>850</v>
       </c>
-      <c r="G16" s="191">
+      <c r="G16" s="200">
         <v>22</v>
       </c>
-      <c r="H16" s="192">
+      <c r="H16" s="193">
         <v>10</v>
       </c>
-      <c r="I16" s="192">
+      <c r="I16" s="193">
         <f t="shared" ref="I16" si="6">H16+G16</f>
         <v>32</v>
       </c>
-      <c r="J16" s="192">
+      <c r="J16" s="193">
         <f t="shared" ref="J16" si="7">I16*E16</f>
         <v>118400</v>
       </c>
-      <c r="K16" s="191">
+      <c r="K16" s="200">
         <f>G16</f>
         <v>22</v>
       </c>
-      <c r="L16" s="192">
+      <c r="L16" s="193">
         <v>10</v>
       </c>
-      <c r="M16" s="192">
+      <c r="M16" s="193">
         <f t="shared" ref="M16" si="8">L16+K16</f>
         <v>32</v>
       </c>
-      <c r="N16" s="192">
+      <c r="N16" s="193">
         <f t="shared" ref="N16" si="9">M16*F16</f>
         <v>27200</v>
       </c>
-      <c r="O16" s="196">
+      <c r="O16" s="195">
         <f>N16+J16</f>
         <v>145600</v>
       </c>
@@ -7779,22 +7779,22 @@
       <c r="B17" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="199"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="191"/>
-      <c r="G17" s="191"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="191">
+      <c r="C17" s="198"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="200">
         <f>G17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="193"/>
-      <c r="M17" s="193"/>
-      <c r="N17" s="193"/>
-      <c r="O17" s="197"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="196"/>
     </row>
     <row r="18" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
@@ -9013,6 +9013,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="O16:O17"/>
@@ -9029,20 +9043,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Completed Projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/BOQ/Running Bill No 2 - Amreli steel (IPC 1 + IPC 2).xlsx
+++ b/Completed Projects/Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi/BOQ/Running Bill No 2 - Amreli steel (IPC 1 + IPC 2).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Amreli Steel - 10th Floor Dolmen Sky Tower Clifton Karachi\BOQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61FC967-C9FE-48D3-B7F7-6F36F4E9FC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C09863-101F-4968-8A90-1E91AFA7346E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,15 +17,12 @@
     <sheet name="HVAC" sheetId="1" r:id="rId2"/>
     <sheet name="Fire" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Fire!$A$1:$O$52</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Fire!$5:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">HVAC!$6:$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
@@ -2085,17 +2082,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2147,37 +2144,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="C21">
-            <v>1066596.6132</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>1335898.3032</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2215,9 +2185,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2250,9 +2220,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2285,9 +2272,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2464,7 +2468,7 @@
   <dimension ref="A2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2606,10 +2610,7 @@
       <c r="C13" s="185"/>
       <c r="D13" s="57"/>
       <c r="E13" s="58"/>
-      <c r="I13" s="167">
-        <f>E12+E10</f>
-        <v>8426130.5</v>
-      </c>
+      <c r="I13" s="167"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="119">
@@ -2623,7 +2624,6 @@
         <v>195</v>
       </c>
       <c r="E14" s="122">
-        <f>[1]Sheet1!$C$23</f>
         <v>1335898.3032</v>
       </c>
       <c r="F14" s="167">
@@ -2740,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T143"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A52" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2768,48 +2768,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="188" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="187" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="188"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
@@ -2827,10 +2827,10 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="189" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="190"/>
+      <c r="B4" s="189"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="66"/>
@@ -2848,25 +2848,25 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="190" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187" t="s">
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="190" t="s">
         <v>216</v>
       </c>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="187"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="190"/>
+      <c r="J5" s="190"/>
+      <c r="K5" s="190"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="190"/>
+      <c r="N5" s="190"/>
+      <c r="O5" s="190"/>
     </row>
     <row r="6" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="186" t="s">
@@ -7155,7 +7155,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I6:I7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="K6:K7"/>
@@ -7165,16 +7164,17 @@
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7195,8 +7195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A986F67D-CBAB-4664-AED6-BDB95A1733AB}">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7216,48 +7216,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
     </row>
     <row r="2" spans="1:15" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="188" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
     </row>
     <row r="3" spans="1:15" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="187" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="188"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
